--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\asw\Loader_i3b\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="4815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -62,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,11 +383,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -446,7 +442,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>

--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\asw\Loader_i3b\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="5880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -383,11 +387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -442,7 +446,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>

--- a/src/test/resources/test2.xlsx
+++ b/src/test/resources/test2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\asw\Loader_i3b\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Oriol\Documents\aswGrupo\citizensLoader_i3b\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14955" windowHeight="5880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15120" windowHeight="2535"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,33 +30,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Nombre</t>
   </si>
   <si>
+    <t>90500084Y</t>
+  </si>
+  <si>
+    <t>C/ Federico García Lorca 2</t>
+  </si>
+  <si>
+    <t>Apellidos</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Torres Pardo</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Fecha nacimiento</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>Kind</t>
-  </si>
-  <si>
-    <t>id1</t>
-  </si>
-  <si>
-    <t>45,-1</t>
-  </si>
-  <si>
-    <t>PersonName</t>
-  </si>
-  <si>
-    <t>person@example.com</t>
+    <t>juan@example.com</t>
+  </si>
+  <si>
+    <t>Dirección postal</t>
+  </si>
+  <si>
+    <t>NIF</t>
+  </si>
+  <si>
+    <t>pollingStation</t>
   </si>
 </sst>
 </file>
@@ -101,12 +119,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -388,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,48 +417,63 @@
     <col min="5" max="5" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>31330</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="4"/>
-      <c r="G4" s="1"/>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
